--- a/sample_excel_data.xlsx
+++ b/sample_excel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ResearchAgents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752C50C-0CCF-423A-ABE5-5DC809F76C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D091AAC-9842-4859-8E9E-C9440AE6DB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Age</t>
   </si>
@@ -74,13 +74,22 @@
   </si>
   <si>
     <t>Name of the person</t>
+  </si>
+  <si>
+    <t>rwerew</t>
+  </si>
+  <si>
+    <t>Student personal details</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +97,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,38 +450,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -463,8 +515,9 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -477,14 +530,17 @@
       <c r="E5">
         <v>65000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -497,14 +553,15 @@
       <c r="E6">
         <v>80000</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -517,14 +574,73 @@
       <c r="E7">
         <v>70000</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="2:19" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="Q9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="Q10">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="Q11">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="Q12">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="Q13">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>